--- a/Simulation_Tool/New_SimulationEnvironment/PlotThesis/year/yearData.xlsx
+++ b/Simulation_Tool/New_SimulationEnvironment/PlotThesis/year/yearData.xlsx
@@ -871,15 +871,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,20 +895,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -924,23 +924,23 @@
       <c r="E2">
         <v>691.95582999999999</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <f>C2/B2</f>
         <v>1.1916564285447238</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <f>D2/C2</f>
         <v>1.5083720299419976</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <f>E2/D2</f>
         <v>0.9851031658027376</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -956,23 +956,23 @@
       <c r="E3">
         <v>688.7958003</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">C3/B3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J7" si="0">C3/B3</f>
         <v>1.2842837195009902</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:J7" si="1">D3/C3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:L7" si="1">D3/C3</f>
         <v>1.0397870175253172</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <f t="shared" si="1"/>
         <v>0.97144006780362435</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -988,23 +988,23 @@
       <c r="E4">
         <v>1584.317536</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>1.0974069334894552</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>1.0607240969332483</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>0.99888117656734332</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1020,23 +1020,23 @@
       <c r="E5">
         <v>444.1766399</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>0.96951532205390512</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>0.86318214463801779</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>1.0199529838256445</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1052,23 +1052,23 @@
       <c r="E6">
         <v>448.18506600000001</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>1.1632471008028544</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>0.85352760736196331</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1085,23 +1085,27 @@
         <v>895.52173549999998</v>
       </c>
       <c r="G7">
+        <f>B7/B4</f>
+        <v>0.61031755215908079</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>0.97808773074902855</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>1.0782772133284599</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>1.0210658874763547</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9">
         <v>0.55634023399999999</v>
       </c>
     </row>
